--- a/Valores Equipamentos.xlsx
+++ b/Valores Equipamentos.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Condominio" sheetId="1" r:id="rId5"/>
-    <sheet state="visible" name="Edvaldo" sheetId="2" r:id="rId6"/>
-    <sheet state="visible" name="Carlos" sheetId="3" r:id="rId7"/>
-    <sheet state="visible" name="Vinicius" sheetId="4" r:id="rId8"/>
-    <sheet state="visible" name="Joao" sheetId="5" r:id="rId9"/>
-    <sheet state="visible" name="Mariana" sheetId="6" r:id="rId10"/>
-    <sheet state="visible" name="Samyr" sheetId="7" r:id="rId11"/>
+    <sheet state="visible" name="Condominio" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Edvaldo" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Carlos" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Vinicius" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Joao" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Mariana" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Samyr" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="64">
   <si>
     <t>Equipamento</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>Laboratorio 6 João</t>
+  </si>
+  <si>
+    <t>Valor Geral Lab 6</t>
   </si>
   <si>
     <t>Laboratorio 4 Mariana</t>
@@ -331,10 +334,6 @@
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2674,15 +2673,15 @@
         <v>2499.0</v>
       </c>
       <c r="D3" s="9">
-        <f t="shared" ref="D3:D14" si="1">PRODUCT(B3, C3)</f>
+        <f t="shared" ref="D3:D15" si="1">PRODUCT(B3, C3)</f>
         <v>2499</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="9">
-        <f>SUM(D3:D14)</f>
-        <v>49458.93</v>
+        <f>SUM(D3:D15)</f>
+        <v>47039.43</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -2866,14 +2865,14 @@
         <v>32</v>
       </c>
       <c r="B8" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C8" s="8">
-        <v>2500.0</v>
+        <v>3496.0</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>6992</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>33</v>
@@ -3022,14 +3021,14 @@
         <v>44</v>
       </c>
       <c r="B12" s="8">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C12" s="8">
         <v>6995.0</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="1"/>
-        <v>27980</v>
+        <v>20985</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>45</v>
@@ -3133,6 +3132,25 @@
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="11">
+        <v>50.0</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1.67</v>
+      </c>
+      <c r="D15" s="12">
+        <f t="shared" si="1"/>
+        <v>83.5</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="12"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3200,7 +3218,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -3234,15 +3252,15 @@
         <v>2499.0</v>
       </c>
       <c r="D3" s="9">
-        <f t="shared" ref="D3:D14" si="1">PRODUCT(B3, C3)</f>
+        <f t="shared" ref="D3:D15" si="1">PRODUCT(B3, C3)</f>
         <v>2499</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="9">
-        <f>SUM(D3:D14)</f>
-        <v>49458.93</v>
+        <f>SUM(D3:D15)</f>
+        <v>47039.43</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -3426,14 +3444,14 @@
         <v>32</v>
       </c>
       <c r="B8" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C8" s="8">
-        <v>2500.0</v>
+        <v>3496.0</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>6992</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>33</v>
@@ -3582,14 +3600,14 @@
         <v>44</v>
       </c>
       <c r="B12" s="8">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C12" s="8">
         <v>6995.0</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="1"/>
-        <v>27980</v>
+        <v>20985</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>45</v>
@@ -3694,6 +3712,25 @@
       <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
     </row>
+    <row r="15">
+      <c r="A15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="11">
+        <v>50.0</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1.67</v>
+      </c>
+      <c r="D15" s="12">
+        <f t="shared" si="1"/>
+        <v>83.5</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="12"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3715,7 +3752,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3760,7 +3797,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -4254,7 +4291,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4299,7 +4336,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>

--- a/Valores Equipamentos.xlsx
+++ b/Valores Equipamentos.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Condominio" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Edvaldo" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Carlos" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Vinicius" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Joao" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Mariana" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Samyr" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Condominio" sheetId="1" r:id="rId5"/>
+    <sheet state="visible" name="Edvaldo" sheetId="2" r:id="rId6"/>
+    <sheet state="visible" name="Carlos" sheetId="3" r:id="rId7"/>
+    <sheet state="visible" name="Vinicius" sheetId="4" r:id="rId8"/>
+    <sheet state="visible" name="Joao" sheetId="5" r:id="rId9"/>
+    <sheet state="visible" name="Mariana" sheetId="6" r:id="rId10"/>
+    <sheet state="visible" name="Samyr" sheetId="7" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -334,6 +334,10 @@
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1504,7 +1508,7 @@
       </c>
       <c r="F3" s="9">
         <f>SUM(D3:D15)</f>
-        <v>47039.43</v>
+        <v>47025.46</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -1922,14 +1926,14 @@
         <v>48</v>
       </c>
       <c r="B14" s="11">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C14" s="11">
         <v>13.97</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="1"/>
-        <v>55.88</v>
+        <v>41.91</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>49</v>
@@ -2103,7 +2107,7 @@
       </c>
       <c r="F3" s="9">
         <f>SUM(D3:D15)</f>
-        <v>47039.43</v>
+        <v>47025.46</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -2521,14 +2525,14 @@
         <v>48</v>
       </c>
       <c r="B14" s="11">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C14" s="11">
         <v>13.97</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="1"/>
-        <v>55.88</v>
+        <v>41.91</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>49</v>
@@ -2681,7 +2685,7 @@
       </c>
       <c r="F3" s="9">
         <f>SUM(D3:D15)</f>
-        <v>47039.43</v>
+        <v>47025.46</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -3099,14 +3103,14 @@
         <v>48</v>
       </c>
       <c r="B14" s="11">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C14" s="11">
         <v>13.97</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="1"/>
-        <v>55.88</v>
+        <v>41.91</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>49</v>
@@ -3260,7 +3264,7 @@
       </c>
       <c r="F3" s="9">
         <f>SUM(D3:D15)</f>
-        <v>47039.43</v>
+        <v>47025.46</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -3678,14 +3682,14 @@
         <v>48</v>
       </c>
       <c r="B14" s="11">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C14" s="11">
         <v>13.97</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="1"/>
-        <v>55.88</v>
+        <v>41.91</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>49</v>
@@ -4377,7 +4381,7 @@
         <v>24</v>
       </c>
       <c r="F3" s="8">
-        <v>47039.43</v>
+        <v>47025.46</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -4795,14 +4799,14 @@
         <v>48</v>
       </c>
       <c r="B14" s="11">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C14" s="11">
         <v>13.97</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="1"/>
-        <v>55.88</v>
+        <v>41.91</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>49</v>
